--- a/Project Data for Analysis.xlsx
+++ b/Project Data for Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meenakshi Ganesh\Downloads\7-JP-Morgan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C5162E-0270-41BF-8438-B2E5FBD877EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF8570C-8298-4D72-8023-426047F5434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="96">
   <si>
     <t>Hypothetical Project Cost - Budget vs. Actual</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Because of offsetting, overall the actual hours are very close to the budget</t>
   </si>
   <si>
-    <t>•Project cost starts to taper down from the 4th month of execution to completion.</t>
-  </si>
-  <si>
     <t>•Whereas the Actual Cost of doing Project B is the lowest, and the Actual Cost of doing Project D is the highest.</t>
   </si>
   <si>
@@ -302,10 +299,22 @@
     <t>A possible Risk -  unexpected risk, events or changes in project scope that would have increased costs may not have occurred.</t>
   </si>
   <si>
-    <t xml:space="preserve">•Actual Project Cost for the first 3 months was higher by 9%, 3% and 13% respectively Which is common as Project begins.  </t>
+    <t>percent</t>
   </si>
   <si>
-    <t>percent</t>
+    <t>There can be various reasons why a project's actual cost is lower than its budgeted cost. Some common reasons include efficient resource utilization, effective cost management, completing the project ahead of schedule, and favorable economic conditions. It's important to analyze the reasons for the cost savings to identify any best practices that can be applied to future projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for Project A, B, C - reasons include unexpected expenses, changes in scope, delays, and unforeseen circumstances. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Project D &amp; E, reasons could include efficient resource utilization, effective cost management, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">completing the project ahead of schedule, and favorable economic conditions. </t>
+  </si>
+  <si>
+    <t>Futher anaysis is required to know the reasons for the cost savings to identify any best practices that can be applied to future projects.</t>
   </si>
 </sst>
 </file>
@@ -951,94 +960,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -1276,6 +1197,94 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5674,15 +5683,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>338364</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>664935</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1632858</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>208643</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7689,192 +7698,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA652E25-C084-409F-8F69-0328B15DE60A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="31">
-  <location ref="A24:C31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="32">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="14">
-        <item x="9"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Total Budgetted Cost" fld="24" baseField="0" baseItem="0"/>
-    <dataField name="Sum of total Actual cost" fld="31" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="11">
-    <format dxfId="10">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="21" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="21" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{941ECD56-D60C-4705-85E1-A38233CAFB49}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="25">
   <location ref="A3:C18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
@@ -7991,35 +7814,35 @@
     <dataField name="Sum of Total Actual hours" fld="17" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="25">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="12">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="11">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="10">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="9">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -8029,23 +7852,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="4">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -8055,7 +7878,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -8134,7 +7957,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDB367E4-0766-4D5B-A422-77774E0A73AE}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="31">
   <location ref="A43:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
@@ -8236,6 +8059,200 @@
     <dataField name="Sum of total Actual cost" fld="31" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="19">
+    <format dxfId="33">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA652E25-C084-409F-8F69-0328B15DE60A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="31">
+  <location ref="A24:C31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="32">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="14">
+        <item x="9"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Total Budgetted Cost" fld="24" baseField="0" baseItem="0"/>
+    <dataField name="Sum of total Actual cost" fld="31" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="11">
     <format dxfId="44">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -8265,37 +8282,6 @@
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="36">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -8305,7 +8291,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="35">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -8316,6 +8305,26 @@
       </pivotArea>
     </format>
   </formats>
+  <chartFormats count="2">
+    <chartFormat chart="21" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="21" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -15157,10 +15166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726F1EA4-8510-44DD-92FE-1DEE60DB4481}">
-  <dimension ref="A3:I53"/>
+  <dimension ref="A3:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15826,37 +15835,37 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E33" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E34" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E36" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E37" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E38" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E39" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -15895,7 +15904,7 @@
         <v>78</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -16068,12 +16077,27 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E52" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E53" s="4" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E54" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E55" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="E64" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
